--- a/personal_app/data.xlsx
+++ b/personal_app/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mavis/Downloads/mavismxy.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mavis/Downloads/mavismxy.github.io/personal_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7B906C-C036-F847-AD15-51245E199A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3CED7-4F69-F54D-8C2A-6FD47F3A3CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4478028A-62FA-C34F-910C-C1276A0BE68E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{4478028A-62FA-C34F-910C-C1276A0BE68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA6A905-A0FD-6E4A-BAEB-AA2125C99E74}">
   <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD747025-4A2C-154C-A42C-A017199DB5F5}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
